--- a/public/data/res/family/总表.xlsx
+++ b/public/data/res/family/总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18375"/>
+    <workbookView windowHeight="21105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +197,6 @@
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -653,160 +646,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1134,7 +1124,7 @@
   <dimension ref="A1:GP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1465,143 +1455,143 @@
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>380</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1527</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>193</v>
       </c>
-      <c r="E2" s="4">
-        <v>45.53</v>
-      </c>
-      <c r="F2" s="4">
-        <v>25.79</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4.21</v>
-      </c>
-      <c r="H2" s="4">
-        <v>24.47</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="E2" s="3">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3">
+        <v>14.48</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5.52</v>
+      </c>
+      <c r="H2" s="3">
+        <v>50.79</v>
+      </c>
+      <c r="I2" s="3">
         <v>49.1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>50.9</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>18.152</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>6.553</v>
       </c>
-      <c r="M2" s="4">
-        <v>6.553</v>
-      </c>
-      <c r="N2" s="4">
-        <v>6.553</v>
-      </c>
-      <c r="O2" s="4">
-        <v>6.553</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="M2" s="3">
+        <v>17.562</v>
+      </c>
+      <c r="N2" s="3">
+        <v>11.927</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45.806</v>
+      </c>
+      <c r="P2" s="3">
         <v>4</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>0</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>0</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
+        <v>67</v>
+      </c>
+      <c r="U2" s="3">
+        <v>43</v>
+      </c>
+      <c r="V2" s="3">
+        <v>15</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
         <v>0</v>
       </c>
-      <c r="U2" s="4">
+      <c r="Y2" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="3">
         <v>0</v>
       </c>
-      <c r="V2" s="4">
+      <c r="AA2" s="3">
         <v>0</v>
       </c>
-      <c r="W2" s="4">
+      <c r="AB2" s="3">
         <v>0</v>
       </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="3">
         <v>100</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="3">
         <v>100</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="3">
         <v>100</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="3">
         <v>100</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="3">
         <v>100</v>
       </c>
-      <c r="AH2" s="4">
-        <v>89.2</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>89.2</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>89.2</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>89.2</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>89.2</v>
-      </c>
-      <c r="AM2" s="4">
+      <c r="AH2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="3">
         <v>63.1</v>
       </c>
-      <c r="AN2" s="4">
-        <v>63.1</v>
-      </c>
-      <c r="AO2" s="4">
-        <v>63.1</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>63.1</v>
-      </c>
-      <c r="AQ2" s="4">
-        <v>63.1</v>
-      </c>
-      <c r="AR2" s="4">
-        <v>63.1</v>
-      </c>
-      <c r="AS2" s="4">
-        <v>63.1</v>
-      </c>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
+      <c r="AO2" s="3">
+        <v>32.2</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>30</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="5" ht="15" spans="13:13">
       <c r="M5" s="2"/>
